--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.05638597699917</v>
+        <v>63.80001353158892</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.91164680740027</v>
+        <v>87.29399317183581</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.28920191912947</v>
+        <v>78.96277698142562</v>
       </c>
       <c r="AD2" t="n">
-        <v>43056.38597699917</v>
+        <v>63800.01353158892</v>
       </c>
       <c r="AE2" t="n">
-        <v>58911.64680740028</v>
+        <v>87293.99317183581</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.320748999567268e-06</v>
+        <v>1.237608941152291e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.766203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>53289.20191912947</v>
+        <v>78962.77698142562</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.36868833873235</v>
+        <v>50.69792119729564</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.23422032572013</v>
+        <v>69.36713241654581</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.96274385965584</v>
+        <v>62.74683065610769</v>
       </c>
       <c r="AD3" t="n">
-        <v>40368.68833873235</v>
+        <v>50697.92119729564</v>
       </c>
       <c r="AE3" t="n">
-        <v>55234.22032572013</v>
+        <v>69367.13241654582</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.284724119637408e-06</v>
+        <v>1.400573718078487e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.445987654320988</v>
       </c>
       <c r="AH3" t="n">
-        <v>49962.74385965584</v>
+        <v>62746.83065610769</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.20026261244353</v>
+        <v>50.37617131087832</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.00377281659427</v>
+        <v>68.92690002734665</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.75428993736514</v>
+        <v>62.34861342826353</v>
       </c>
       <c r="AD2" t="n">
-        <v>40200.26261244353</v>
+        <v>50376.17131087832</v>
       </c>
       <c r="AE2" t="n">
-        <v>55003.77281659427</v>
+        <v>68926.90002734665</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.095482320472627e-06</v>
+        <v>1.401968348383287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.588734567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>49754.28993736515</v>
+        <v>62348.61342826352</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.8013083021121</v>
+        <v>48.80662479995446</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.08966181169969</v>
+        <v>66.77937724759663</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.02285900030035</v>
+        <v>60.40604720854499</v>
       </c>
       <c r="AD3" t="n">
-        <v>38801.3083021121</v>
+        <v>48806.62479995446</v>
       </c>
       <c r="AE3" t="n">
-        <v>53089.66181169969</v>
+        <v>66779.37724759663</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.664638620440222e-06</v>
+        <v>1.50053432459691e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.418981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>48022.85900030035</v>
+        <v>60406.04720854499</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.36463575113462</v>
+        <v>44.56534221842389</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.38745481218258</v>
+        <v>60.97626730736763</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.76942403721418</v>
+        <v>55.15677793629366</v>
       </c>
       <c r="AD2" t="n">
-        <v>35364.63575113462</v>
+        <v>44565.3422184239</v>
       </c>
       <c r="AE2" t="n">
-        <v>48387.45481218258</v>
+        <v>60976.26730736763</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.952567338477523e-06</v>
+        <v>1.694018390485425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.611882716049382</v>
       </c>
       <c r="AH2" t="n">
-        <v>43769.42403721418</v>
+        <v>55156.77793629366</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.44054516556888</v>
+        <v>45.8519245985232</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.85956153877781</v>
+        <v>62.73662607982732</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.1010349639423</v>
+        <v>56.74913053818941</v>
       </c>
       <c r="AD2" t="n">
-        <v>36440.54516556888</v>
+        <v>45851.9245985232</v>
       </c>
       <c r="AE2" t="n">
-        <v>49859.56153877781</v>
+        <v>62736.62607982731</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.046301502685924e-06</v>
+        <v>1.648039670935442e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.472993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>45101.03496394231</v>
+        <v>56749.13053818941</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.7069447192017</v>
+        <v>52.22690379876679</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.48757292701579</v>
+        <v>71.45915386582928</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.95542561617287</v>
+        <v>64.63919251444277</v>
       </c>
       <c r="AD2" t="n">
-        <v>34706.9447192017</v>
+        <v>52226.90379876679</v>
       </c>
       <c r="AE2" t="n">
-        <v>47487.57292701579</v>
+        <v>71459.15386582928</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.631972115334057e-06</v>
+        <v>1.691588412060228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>42955.42561617287</v>
+        <v>64639.19251444277</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.63388236589279</v>
+        <v>50.89492971048359</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.59707049321405</v>
+        <v>69.63668815569162</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.29096411642864</v>
+        <v>62.99066037383336</v>
       </c>
       <c r="AD2" t="n">
-        <v>40633.88236589279</v>
+        <v>50894.92971048359</v>
       </c>
       <c r="AE2" t="n">
-        <v>55597.07049321406</v>
+        <v>69636.68815569162</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.982756945180432e-06</v>
+        <v>1.373418330654116e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.600308641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>50290.96411642864</v>
+        <v>62990.66037383337</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.23590235899038</v>
+        <v>49.32635750298876</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.6842925732543</v>
+        <v>67.49049846087641</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.56073903654347</v>
+        <v>61.04930001129447</v>
       </c>
       <c r="AD3" t="n">
-        <v>39235.90235899038</v>
+        <v>49326.35750298876</v>
       </c>
       <c r="AE3" t="n">
-        <v>53684.2925732543</v>
+        <v>67490.49846087641</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.548523483112471e-06</v>
+        <v>1.470757400276637e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.430555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>48560.73903654348</v>
+        <v>61049.30001129447</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.25637604949009</v>
+        <v>51.87394104096229</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.18528204752153</v>
+        <v>70.97621464898354</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.53672179598311</v>
+        <v>64.20234433864317</v>
       </c>
       <c r="AD2" t="n">
-        <v>43256.37604949009</v>
+        <v>51873.94104096229</v>
       </c>
       <c r="AE2" t="n">
-        <v>59185.28204752153</v>
+        <v>70976.21464898354</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.250342815740414e-06</v>
+        <v>1.653913533613186e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.013117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>53536.7217959831</v>
+        <v>64202.34433864318</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.72852641560656</v>
+        <v>47.45752681390358</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.62183430679331</v>
+        <v>64.93348186508014</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.69511889234902</v>
+        <v>58.73632149060487</v>
       </c>
       <c r="AD2" t="n">
-        <v>37728.52641560656</v>
+        <v>47457.52681390358</v>
       </c>
       <c r="AE2" t="n">
-        <v>51621.83430679331</v>
+        <v>64933.48186508015</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.827121171652665e-06</v>
+        <v>1.563348751100593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.445987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>46695.11889234902</v>
+        <v>58736.32149060487</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.9031531274501</v>
+        <v>48.820093475258</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.22901039480307</v>
+        <v>66.79780568334293</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.14890835020971</v>
+        <v>60.42271686024814</v>
       </c>
       <c r="AD2" t="n">
-        <v>38903.1531274501</v>
+        <v>48820.093475258</v>
       </c>
       <c r="AE2" t="n">
-        <v>53229.01039480307</v>
+        <v>66797.80568334293</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5090735694615e-06</v>
+        <v>1.483908129960694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.488425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>48148.90835020971</v>
+        <v>60422.71686024814</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.58701921566654</v>
+        <v>48.50395956347437</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.796462029859</v>
+        <v>66.36525731839693</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.75764179412918</v>
+        <v>60.031450304167</v>
       </c>
       <c r="AD3" t="n">
-        <v>38587.01921566654</v>
+        <v>48503.95956347437</v>
       </c>
       <c r="AE3" t="n">
-        <v>52796.462029859</v>
+        <v>66365.25731839692</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.658308413946724e-06</v>
+        <v>1.50993338373213e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.44212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>47757.64179412918</v>
+        <v>60031.450304167</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.03794784379361</v>
+        <v>62.62745763692389</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.51817482306584</v>
+        <v>85.68965046724074</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.02872094533195</v>
+        <v>77.51155049284745</v>
       </c>
       <c r="AD2" t="n">
-        <v>42037.94784379361</v>
+        <v>62627.45763692389</v>
       </c>
       <c r="AE2" t="n">
-        <v>57518.17482306584</v>
+        <v>85689.65046724073</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.606058697680403e-06</v>
+        <v>1.292979568402953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>52028.72094533194</v>
+        <v>77511.55049284745</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.08894901889914</v>
+        <v>50.34112299673092</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.85146864709839</v>
+        <v>68.87894537770772</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.61652146404527</v>
+        <v>62.30523550308134</v>
       </c>
       <c r="AD3" t="n">
-        <v>40088.94901889913</v>
+        <v>50341.12299673092</v>
       </c>
       <c r="AE3" t="n">
-        <v>54851.46864709839</v>
+        <v>68878.94537770773</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.336712118144112e-06</v>
+        <v>1.4171858073755e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.449845679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>49616.52146404527</v>
+        <v>62305.23550308134</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.76181362430834</v>
+        <v>46.28470863944425</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.29913521738709</v>
+        <v>63.32878029769954</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.49865634761196</v>
+        <v>57.28477038860176</v>
       </c>
       <c r="AD2" t="n">
-        <v>36761.81362430834</v>
+        <v>46284.70863944424</v>
       </c>
       <c r="AE2" t="n">
-        <v>50299.13521738709</v>
+        <v>63328.78029769954</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.042814761048311e-06</v>
+        <v>1.63063349053349e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.44212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>45498.65634761196</v>
+        <v>57284.77038860176</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.64557221241981</v>
+        <v>44.98263356647001</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.77184447255307</v>
+        <v>61.54722373935902</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.11712808789432</v>
+        <v>55.67324308775835</v>
       </c>
       <c r="AD2" t="n">
-        <v>35645.57221241981</v>
+        <v>44982.63356647001</v>
       </c>
       <c r="AE2" t="n">
-        <v>48771.84447255307</v>
+        <v>61547.22373935902</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.057315619075193e-06</v>
+        <v>1.689805584003189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.542438271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>44117.12808789432</v>
+        <v>55673.24308775835</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.94630994082937</v>
+        <v>52.79461437924525</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.81508298329346</v>
+        <v>72.2359205276627</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.25167857234363</v>
+        <v>65.3418256562699</v>
       </c>
       <c r="AD2" t="n">
-        <v>34946.30994082936</v>
+        <v>52794.61437924525</v>
       </c>
       <c r="AE2" t="n">
-        <v>47815.08298329346</v>
+        <v>72235.9205276627</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.87882015348945e-06</v>
+        <v>1.707430041384412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.681327160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>43251.67857234363</v>
+        <v>65341.82565626991</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.17186831372387</v>
+        <v>59.80540961333671</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.06965483522806</v>
+        <v>81.82839986139867</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.43212988254707</v>
+        <v>74.01881222552646</v>
       </c>
       <c r="AD2" t="n">
-        <v>43171.86831372387</v>
+        <v>59805.40961333671</v>
       </c>
       <c r="AE2" t="n">
-        <v>59069.65483522807</v>
+        <v>81828.39986139866</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.575234210228938e-06</v>
+        <v>1.562467294118203e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.371913580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>53432.12988254707</v>
+        <v>74018.81222552646</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.9821868614229</v>
+        <v>47.8071614855924</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.96890371946662</v>
+        <v>65.41186744767764</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.00906448739281</v>
+        <v>59.16905062461778</v>
       </c>
       <c r="AD2" t="n">
-        <v>37982.1868614229</v>
+        <v>47807.1614855924</v>
       </c>
       <c r="AE2" t="n">
-        <v>51968.90371946662</v>
+        <v>65411.86744767764</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.824066162808187e-06</v>
+        <v>1.550353615827099e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.42283950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>47009.06448739281</v>
+        <v>59169.05062461778</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.27162427921449</v>
+        <v>51.61487190620488</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.46965711420414</v>
+        <v>70.62174482948504</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.08027229499704</v>
+        <v>63.88170462121597</v>
       </c>
       <c r="AD2" t="n">
-        <v>41271.62427921449</v>
+        <v>51614.87190620488</v>
       </c>
       <c r="AE2" t="n">
-        <v>56469.65711420414</v>
+        <v>70621.74482948503</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.808001986972185e-06</v>
+        <v>1.335081325527677e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>51080.27229499703</v>
+        <v>63881.70462121598</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.59669889470148</v>
+        <v>49.76935432109941</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.17795031063162</v>
+        <v>68.09662625105537</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.00728277231997</v>
+        <v>61.59757981588464</v>
       </c>
       <c r="AD3" t="n">
-        <v>39596.69889470148</v>
+        <v>49769.3543210994</v>
       </c>
       <c r="AE3" t="n">
-        <v>54177.95031063163</v>
+        <v>68096.62625105536</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.472404901543563e-06</v>
+        <v>1.448686819654143e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.430555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>49007.28277231997</v>
+        <v>61597.57981588464</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.12572050450061</v>
+        <v>68.3163260919743</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.32071041872247</v>
+        <v>93.47341126260012</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.51396191562118</v>
+        <v>84.5524400824771</v>
       </c>
       <c r="AD2" t="n">
-        <v>52125.7205045006</v>
+        <v>68316.3260919743</v>
       </c>
       <c r="AE2" t="n">
-        <v>71320.71041872248</v>
+        <v>93473.41126260013</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.303266639932873e-06</v>
+        <v>1.351080363386628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.197530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>64513.96191562118</v>
+        <v>84552.4400824771</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.07896870255312</v>
+        <v>45.54255353220653</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.3648366704543</v>
+        <v>62.31333093840485</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.65352594269941</v>
+        <v>56.36623409096571</v>
       </c>
       <c r="AD2" t="n">
-        <v>36078.96870255312</v>
+        <v>45542.55353220653</v>
       </c>
       <c r="AE2" t="n">
-        <v>49364.83667045429</v>
+        <v>62313.33093840486</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.043520263343171e-06</v>
+        <v>1.6662075965056e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.507716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>44653.52594269941</v>
+        <v>56366.23409096571</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.15106720915309</v>
+        <v>46.77958010403745</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.8317291448253</v>
+        <v>64.00588526774381</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.98042025811733</v>
+        <v>57.897253410628</v>
       </c>
       <c r="AD2" t="n">
-        <v>37151.06720915309</v>
+        <v>46779.58010403745</v>
       </c>
       <c r="AE2" t="n">
-        <v>50831.7291448253</v>
+        <v>64005.88526774381</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.994839972320419e-06</v>
+        <v>1.606862518259521e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.426697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>45980.42025811733</v>
+        <v>57897.253410628</v>
       </c>
     </row>
   </sheetData>
